--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Ziervgel/Friedrich_Ziervgel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Ziervgel/Friedrich_Ziervgel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Ziervgel est un pharmacien et un naturaliste, né le 21 juin 1727 à Stockholm et mort le 26 septembre 1792 à Uppsala.
 Il est le fils de Ægidius Ziervgel (1697-1741), pharmacien militaire. Friedrich Ziervgel est le pharmacien à la cour royale de Stockholm.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Åhlander, Sven O. Kullander &amp; Bo Fernholm (1997). Ichthyological Collection Building at the Swedish Museum of Natural History, Stockholm. in Collection building in ichthyology and herpetology (T.W. Pietsch et W.D. Anderson, dir.), American Society of Ichthyologists and Herpetologists : 13-25.  (ISBN 0-935868-91-7)
  Portail de l’histoire de la zoologie et de la botanique   Portail de la Suède                    </t>
